--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -625,27 +625,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 12626-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 12626-2021.xlsx", "A 12626-2021")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 12626-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 12626-2021.png", "A 12626-2021")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 12626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 12626-2021.docx", "A 12626-2021")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 12626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 12626-2021.docx", "A 12626-2021")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 12626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 12626-2021.docx", "A 12626-2021")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 12626-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 12626-2021.docx", "A 12626-2021")</f>
         <v/>
       </c>
     </row>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 18152-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 18152-2022.xlsx", "A 18152-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 18152-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 18152-2022.png", "A 18152-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 18152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 18152-2022.docx", "A 18152-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 18152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 18152-2022.docx", "A 18152-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 18152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 18152-2022.docx", "A 18152-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 18152-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 18152-2022.docx", "A 18152-2022")</f>
         <v/>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -798,27 +798,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 64042-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 64042-2020.xlsx", "A 64042-2020")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 64042-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 64042-2020.png", "A 64042-2020")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 64042-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 64042-2020.docx", "A 64042-2020")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 64042-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 64042-2020.docx", "A 64042-2020")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 64042-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 64042-2020.docx", "A 64042-2020")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 64042-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 64042-2020.docx", "A 64042-2020")</f>
         <v/>
       </c>
     </row>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -889,27 +889,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 33755-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 33755-2021.xlsx", "A 33755-2021")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 33755-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 33755-2021.png", "A 33755-2021")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 33755-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 33755-2021.docx", "A 33755-2021")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 33755-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 33755-2021.docx", "A 33755-2021")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 33755-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 33755-2021.docx", "A 33755-2021")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 33755-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 33755-2021.docx", "A 33755-2021")</f>
         <v/>
       </c>
     </row>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,27 +974,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 48714-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 48714-2018.xlsx", "A 48714-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 48714-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 48714-2018.png", "A 48714-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 48714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 48714-2018.docx", "A 48714-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 48714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 48714-2018.docx", "A 48714-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 48714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 48714-2018.docx", "A 48714-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 48714-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 48714-2018.docx", "A 48714-2018")</f>
         <v/>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1059,27 +1059,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 214-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 214-2019.xlsx", "A 214-2019")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 214-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 214-2019.png", "A 214-2019")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 214-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 214-2019.docx", "A 214-2019")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 214-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 214-2019.docx", "A 214-2019")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 214-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 214-2019.docx", "A 214-2019")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 214-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 214-2019.docx", "A 214-2019")</f>
         <v/>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1144,27 +1144,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 20174-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 20174-2019.xlsx", "A 20174-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 20174-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 20174-2019.png", "A 20174-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 20174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 20174-2019.docx", "A 20174-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 20174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 20174-2019.docx", "A 20174-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 20174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 20174-2019.docx", "A 20174-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 20174-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 20174-2019.docx", "A 20174-2019")</f>
         <v/>
       </c>
     </row>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1229,27 +1229,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 27034-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 27034-2019.xlsx", "A 27034-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 27034-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 27034-2019.png", "A 27034-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 27034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 27034-2019.docx", "A 27034-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 27034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 27034-2019.docx", "A 27034-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 27034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 27034-2019.docx", "A 27034-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 27034-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 27034-2019.docx", "A 27034-2019")</f>
         <v/>
       </c>
     </row>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1314,27 +1314,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 25598-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 25598-2020.xlsx", "A 25598-2020")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 25598-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 25598-2020.png", "A 25598-2020")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 25598-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 25598-2020.docx", "A 25598-2020")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 25598-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 25598-2020.docx", "A 25598-2020")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 25598-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 25598-2020.docx", "A 25598-2020")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 25598-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 25598-2020.docx", "A 25598-2020")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1399,27 +1399,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 28666-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 28666-2020.xlsx", "A 28666-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 28666-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 28666-2020.png", "A 28666-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 28666-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 28666-2020.docx", "A 28666-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 28666-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 28666-2020.docx", "A 28666-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 28666-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 28666-2020.docx", "A 28666-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 28666-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 28666-2020.docx", "A 28666-2020")</f>
         <v/>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1484,27 +1484,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 3798-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 3798-2021.xlsx", "A 3798-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 3798-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 3798-2021.png", "A 3798-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 3798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 3798-2021.docx", "A 3798-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 3798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 3798-2021.docx", "A 3798-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 3798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 3798-2021.docx", "A 3798-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 3798-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 3798-2021.docx", "A 3798-2021")</f>
         <v/>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1569,27 +1569,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 11615-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 11615-2021.xlsx", "A 11615-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 11615-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 11615-2021.png", "A 11615-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 11615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 11615-2021.docx", "A 11615-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 11615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 11615-2021.docx", "A 11615-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 11615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 11615-2021.docx", "A 11615-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 11615-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 11615-2021.docx", "A 11615-2021")</f>
         <v/>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1659,27 +1659,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 34589-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 34589-2021.xlsx", "A 34589-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 34589-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 34589-2021.png", "A 34589-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 34589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 34589-2021.docx", "A 34589-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 34589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 34589-2021.docx", "A 34589-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 34589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 34589-2021.docx", "A 34589-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 34589-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 34589-2021.docx", "A 34589-2021")</f>
         <v/>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1749,27 +1749,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29376-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29376-2022.xlsx", "A 29376-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29376-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29376-2022.png", "A 29376-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29376-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29376-2022.docx", "A 29376-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29376-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29376-2022.docx", "A 29376-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29376-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29376-2022.docx", "A 29376-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29376-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29376-2022.docx", "A 29376-2022")</f>
         <v/>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1839,27 +1839,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29369-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29369-2022.xlsx", "A 29369-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29369-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29369-2022.png", "A 29369-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29369-2022.docx", "A 29369-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29369-2022.docx", "A 29369-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29369-2022.docx", "A 29369-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29369-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29369-2022.docx", "A 29369-2022")</f>
         <v/>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1929,27 +1929,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29375-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29375-2022.xlsx", "A 29375-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29375-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29375-2022.png", "A 29375-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29375-2022.docx", "A 29375-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29375-2022.docx", "A 29375-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29375-2022.docx", "A 29375-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29375-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29375-2022.docx", "A 29375-2022")</f>
         <v/>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2014,27 +2014,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 34381-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 34381-2022.xlsx", "A 34381-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 34381-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 34381-2022.png", "A 34381-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 34381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 34381-2022.docx", "A 34381-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 34381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 34381-2022.docx", "A 34381-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 34381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 34381-2022.docx", "A 34381-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 34381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 34381-2022.docx", "A 34381-2022")</f>
         <v/>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2099,27 +2099,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 17920-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 17920-2023.xlsx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 17920-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 17920-2023.png", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 17920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 17920-2023.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 17920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 17920-2023.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 17920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 17920-2023.docx", "A 17920-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 17920-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 17920-2023.docx", "A 17920-2023")</f>
         <v/>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2184,27 +2184,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29265-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/artfynd/A 29265-2023.xlsx", "A 29265-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29265-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/kartor/A 29265-2023.png", "A 29265-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomål/A 29265-2023.docx", "A 29265-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/klagomålsmail/A 29265-2023.docx", "A 29265-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsyn/A 29265-2023.docx", "A 29265-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29265-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_VANERSBORG/tillsynsmail/A 29265-2023.docx", "A 29265-2023")</f>
         <v/>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>

--- a/Översikt VÄNERSBORG.xlsx
+++ b/Översikt VÄNERSBORG.xlsx
@@ -572,7 +572,7 @@
         <v>44270</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -659,7 +659,7 @@
         <v>44684</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>44167</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,7 +832,7 @@
         <v>44378</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>43371</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
         <v>43467</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>43570</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>43614</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>43983</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>43999</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1433,7 +1433,7 @@
         <v>44221</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         <v>44264</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
         <v>44382</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>44753</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1783,7 +1783,7 @@
         <v>44753</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1873,7 @@
         <v>44753</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>44792</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>45040</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2133,7 +2133,7 @@
         <v>45105</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2218,7 +2218,7 @@
         <v>43326</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2280,7 +2280,7 @@
         <v>43329</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
         <v>43336</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>43340</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         <v>43360</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2508,7 +2508,7 @@
         <v>43371</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         <v>43388</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2622,7 +2622,7 @@
         <v>43397</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>43397</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43410</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>43412</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>43412</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>43413</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>43438</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>43441</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>43442</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>43462</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>43475</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>43481</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>43487</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>43490</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>43493</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         <v>43495</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         <v>43502</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         <v>43502</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         <v>43502</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         <v>43517</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         <v>43523</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>43524</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         <v>43528</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         <v>43529</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         <v>43529</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         <v>43529</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>43530</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4166,7 +4166,7 @@
         <v>43532</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4223,7 +4223,7 @@
         <v>43535</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4280,7 +4280,7 @@
         <v>43535</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
         <v>43537</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4394,7 +4394,7 @@
         <v>43542</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4451,7 +4451,7 @@
         <v>43545</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4508,7 +4508,7 @@
         <v>43546</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4565,7 +4565,7 @@
         <v>43602</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43602</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43606</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43620</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43620</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43647</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
         <v>43647</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4964,7 +4964,7 @@
         <v>43662</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5021,7 +5021,7 @@
         <v>43662</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5078,7 +5078,7 @@
         <v>43662</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5135,7 +5135,7 @@
         <v>43689</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5192,7 +5192,7 @@
         <v>43699</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43699</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>43700</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5363,7 +5363,7 @@
         <v>43733</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43733</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43746</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43746</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43751</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43787</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43811</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43816</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43829</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43844</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43846</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43850</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43860</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43865</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43867</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43873</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43873</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>43879</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6451,7 +6451,7 @@
         <v>43879</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6508,7 +6508,7 @@
         <v>43945</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>43949</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>43983</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         <v>43997</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>44004</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6803,7 +6803,7 @@
         <v>44008</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6860,7 +6860,7 @@
         <v>44012</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6917,7 +6917,7 @@
         <v>44014</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6974,7 +6974,7 @@
         <v>44021</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>44026</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44060</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>44069</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44085</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>44122</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>44122</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>44128</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>44144</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>44144</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>44159</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>44164</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>44165</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>44173</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>44182</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>44195</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>44214</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>44215</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44215</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>44225</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44229</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44229</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44229</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44229</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44231</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44235</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44235</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44236</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44237</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44257</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44280</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44322</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44356</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44361</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44362</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44363</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44363</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44365</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44382</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9274,7 +9274,7 @@
         <v>44382</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         <v>44382</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9398,7 +9398,7 @@
         <v>44382</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>44382</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44382</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>44419</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9646,7 +9646,7 @@
         <v>44419</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>44419</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>44433</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>44438</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>44442</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>44446</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>44467</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>44474</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44488</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10174,7 +10174,7 @@
         <v>44488</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10231,7 +10231,7 @@
         <v>44489</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10288,7 +10288,7 @@
         <v>44497</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10345,7 +10345,7 @@
         <v>44497</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10402,7 +10402,7 @@
         <v>44501</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>44508</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>44523</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
         <v>44531</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10630,7 +10630,7 @@
         <v>44550</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10687,7 +10687,7 @@
         <v>44551</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10744,7 +10744,7 @@
         <v>44579</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10801,7 +10801,7 @@
         <v>44583</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10858,7 +10858,7 @@
         <v>44585</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10915,7 +10915,7 @@
         <v>44606</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44606</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11029,7 +11029,7 @@
         <v>44606</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11086,7 +11086,7 @@
         <v>44616</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11143,7 +11143,7 @@
         <v>44617</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44622</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>44623</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11314,7 +11314,7 @@
         <v>44650</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44659</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44683</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>44684</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>44693</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>44753</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>44753</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         <v>44754</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11785,7 +11785,7 @@
         <v>44769</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11842,7 +11842,7 @@
         <v>44788</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11899,7 +11899,7 @@
         <v>44792</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11956,7 +11956,7 @@
         <v>44795</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12013,7 +12013,7 @@
         <v>44830</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12070,7 +12070,7 @@
         <v>44851</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12127,7 +12127,7 @@
         <v>44852</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12184,7 +12184,7 @@
         <v>44857</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12241,7 +12241,7 @@
         <v>44862</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12298,7 +12298,7 @@
         <v>44872</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12355,7 +12355,7 @@
         <v>44879</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12412,7 +12412,7 @@
         <v>44881</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12469,7 +12469,7 @@
         <v>44886</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12526,7 +12526,7 @@
         <v>44907</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44909</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44929</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>44953</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44973</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44978</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>44992</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45001</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45001</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45006</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45006</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45011</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13267,7 +13267,7 @@
         <v>45014</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         <v>45029</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13381,7 +13381,7 @@
         <v>45030</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13438,7 +13438,7 @@
         <v>45033</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13495,7 +13495,7 @@
         <v>45034</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13552,7 +13552,7 @@
         <v>45035</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45035</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45040</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45043</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45047</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45056</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45056</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45057</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45057</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45063</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45082</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45099</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45124</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
